--- a/test-data/IT23814288.xlsx
+++ b/test-data/IT23814288.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Y3S1\ITPM(IT3040)\01\Assigement 01\IT23814288\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Y3S1\ITPM(IT3040)\01\Assigement 01\IT23814288\IT23814288-ITPM(IT3040)\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FB1263-FF23-4366-B29B-78A10B547CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D977F6-ED83-4E1F-886B-DB5506CC63A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="260">
   <si>
     <t>TC ID</t>
   </si>
@@ -605,12 +605,6 @@
     <t>Punctuation/numbers,</t>
   </si>
   <si>
-    <t>Date format corruption</t>
-  </si>
-  <si>
-    <t>"2026-02-01"</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -701,9 +695,6 @@
     <t>Typographical error handling</t>
   </si>
   <si>
-    <t>Hyphens or slashes used in dates could be misinterpreted as character joiners or separators in the transliteration logic.</t>
-  </si>
-  <si>
     <t>nic eka student id ek oona kivvaa.</t>
   </si>
   <si>
@@ -725,24 +716,9 @@
     <t>It treats "nic" as a phonetic word (නිc), resulting in a meaningless Sinhala word.</t>
   </si>
   <si>
-    <t xml:space="preserve">  sin(x)+ sin(y) = 15,  y &gt;= 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  සින්(x)+ සින්(ය්) = 15,  ය් &gt;= 10</t>
-  </si>
-  <si>
     <t>Mathematical Expression Failure</t>
   </si>
   <si>
-    <t xml:space="preserve">mathematical equeation </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://courseweb.sliit.lk '</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> හ්ට්ට්ප්ස්://cඔඋර්සෙwඑබ්.ස්ලීට්.ල්ක් '</t>
-  </si>
-  <si>
     <t>URL/Email Corruption</t>
   </si>
   <si>
@@ -782,12 +758,6 @@
     <t>Empty/cleared input handling</t>
   </si>
   <si>
-    <t>Ctrl+C, Ctrl+X, #sliit, @SLIITofficial, #real</t>
-  </si>
-  <si>
-    <t>Cට්‍රල්+C, Cට්‍රල්+X, #ස්ලීට්, @ස්ළීඨොෆ්ෆිcඉඅල්, #රේල්</t>
-  </si>
-  <si>
     <t>Hashtag and Social Media Format + Special Character Keyboard Shortcuts</t>
   </si>
   <si>
@@ -800,48 +770,77 @@
     <t>This makes the system inadequate for social media content creation or digital marketing use cases.</t>
   </si>
   <si>
-    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>Extreme repeating character pattern causing processing failure</t>
-  </si>
-  <si>
-    <t>3,000 'අ' characters</t>
-  </si>
-  <si>
-    <t>System hangs/freezes during processing</t>
-  </si>
-  <si>
-    <t>The system's processing algorithm enters an infinite or extremely inefficient loop when encountering 3,000+ identical consecutive characters</t>
-  </si>
-  <si>
-    <t>Real-time update mechanism attempts to update the output field 3,000 times, causing UI thread blockage.</t>
-  </si>
-  <si>
-    <t>Extreme repetition pattern</t>
-  </si>
-  <si>
-    <t>Single character pattern</t>
-  </si>
-  <si>
-    <t>Actually extreme L (3,000 characters)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stress testing algorithmic efficiency
-</t>
-  </si>
-  <si>
-    <t>Character-by-character processing without optimization causes exponential time complexity for repetitive patterns.</t>
-  </si>
-  <si>
-    <t>This reveals a critical algorithmic inefficiency in handling edge cases with extreme repetition patterns.</t>
+    <t>Ambiguous word with multiple meanings fails context detection</t>
+  </si>
+  <si>
+    <t>මට ඔය අබ ගෙඩිය දෙන්න.</t>
+  </si>
+  <si>
+    <t>mata oya aba gediya dhenna.</t>
+  </si>
+  <si>
+    <t>මට ඔය අඹ ගෙඩිය දෙන්න.</t>
+  </si>
+  <si>
+    <t>The word "aba gediya" is ambiguous - it could mean "අබ " (A spice from Sri Lanka.) but i mean that sentence "අඹ ගෙඩිය"(A fruit). Without context understanding, the system incorrectly converts it to "A spice from Sri Lanka." instead of the fruits.</t>
+  </si>
+  <si>
+    <t>mee samiikaraNayen oyagee vaedee kara ganna puluvan " sin(x)+ sin(y) = 15, y &gt;= 10 "</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> මේ සමීකරණයෙන් ඔයගේ වැඩේ කර ගන්න පුලුවන් " sin(x)+ sin(y) = 15,  y &gt;= 10 "</t>
+  </si>
+  <si>
+    <t>මේ සමීකරණයෙන් ඔයගේ වැඩේ කර ගන්න පුලුවන් " සින්(x)+ සින්(ය්) = 15, ය් &gt;= 10 "</t>
+  </si>
+  <si>
+    <t>simple sentence</t>
+  </si>
+  <si>
+    <t>me Link eken Log wenna. ' https://courseweb.sliit.lk '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">මෙ Link එකෙන් Log වෙන්න. ' හ්ට්ට්ප්ස්://cඔඋර්සෙwඑබ්.ස්ලීට්.ල්ක් ' </t>
+  </si>
+  <si>
+    <t>මෙ Link එකෙන් Log වෙන්න.' https://courseweb.sliit.lk '</t>
+  </si>
+  <si>
+    <t>mee command tika Save karala thiyaaganna. (Ctrl+C, Ctrl+X, #sliit, @SLIITofficial, #real)</t>
+  </si>
+  <si>
+    <t>මේ command ටික Save කරල තියාගන්න. (Cට්‍රල්+C, Cට්‍රල්+X, #ස්ලීට්, @ස්ළීඨොෆ්ෆිcඉඅල්, #රේල්)</t>
+  </si>
+  <si>
+    <t>මේ command ටික Save කරල තියාගන්න. (Ctrl+C, Ctrl+X, #sliit, @SLIITofficial, #real)</t>
+  </si>
+  <si>
+    <t>Long inputs (≥ 300 characters)</t>
+  </si>
+  <si>
+    <t>Long vowel misinterpretation in casual typing</t>
+  </si>
+  <si>
+    <t>api paan kaanavaa</t>
+  </si>
+  <si>
+    <t>අපි පාන් කානවා</t>
+  </si>
+  <si>
+    <t>අපි පාන් කනවා</t>
+  </si>
+  <si>
+    <t>The double 'aa' in "kaanavaa" is meant to elongate the vowel sound, but the system may incorrectly add extra vowel signs or fail to recognize this as emphasis, producing malformed Sinhala characters.</t>
+  </si>
+  <si>
+    <t>S (≤30 characters)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,12 +911,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
       <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1139,7 +1132,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1537,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="D102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105:G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1546,7 +1539,7 @@
     <col min="4" max="4" width="20.109375" customWidth="1"/>
     <col min="5" max="5" width="14.77734375" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
     <col min="8" max="8" width="27.44140625" customWidth="1"/>
     <col min="9" max="9" width="31.5546875" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
@@ -3059,7 +3052,7 @@
         <v>165</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="G89" s="17" t="s">
         <v>166</v>
@@ -3105,7 +3098,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4" t="s">
-        <v>62</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="4:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3259,33 +3252,33 @@
         <v>181</v>
       </c>
     </row>
-    <row r="101" spans="4:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D101" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="F101" s="29" t="s">
         <v>45</v>
       </c>
       <c r="G101" s="32" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="H101" s="35" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="J101" s="29" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="4:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3324,36 +3317,36 @@
       <c r="J104" s="31"/>
       <c r="K104" s="8"/>
       <c r="L104" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="105" spans="4:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105" spans="4:12" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D105" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E105" s="29" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H105" s="35" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="J105" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>254</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="4:12" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3364,11 +3357,9 @@
       <c r="H106" s="36"/>
       <c r="I106" s="39"/>
       <c r="J106" s="30"/>
-      <c r="K106" s="7" t="s">
-        <v>258</v>
-      </c>
+      <c r="K106" s="7"/>
       <c r="L106" s="7" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="4:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3379,11 +3370,9 @@
       <c r="H107" s="36"/>
       <c r="I107" s="39"/>
       <c r="J107" s="30"/>
-      <c r="K107" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="K107" s="7"/>
       <c r="L107" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" spans="4:12" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3394,11 +3383,9 @@
       <c r="H108" s="37"/>
       <c r="I108" s="40"/>
       <c r="J108" s="31"/>
-      <c r="K108" s="8" t="s">
-        <v>259</v>
-      </c>
+      <c r="K108" s="8"/>
       <c r="L108" s="7" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="4:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -3406,25 +3393,25 @@
         <v>35</v>
       </c>
       <c r="E109" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F109" s="29" t="s">
         <v>45</v>
       </c>
       <c r="G109" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="H109" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="I109" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="J109" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="H109" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="I109" s="38" t="s">
+      <c r="K109" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="J109" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="L109" s="7" t="s">
         <v>174</v>
@@ -3439,10 +3426,10 @@
       <c r="I110" s="39"/>
       <c r="J110" s="30"/>
       <c r="K110" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111" spans="4:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3468,7 +3455,7 @@
       <c r="J112" s="31"/>
       <c r="K112" s="8"/>
       <c r="L112" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="113" spans="4:12" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3476,28 +3463,28 @@
         <v>36</v>
       </c>
       <c r="E113" s="29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F113" s="29" t="s">
         <v>45</v>
       </c>
       <c r="G113" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="H113" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="I113" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="J113" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="K113" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H113" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="I113" s="38" t="s">
+      <c r="L113" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="J113" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="K113" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L113" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="114" spans="4:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3536,7 +3523,7 @@
       <c r="J116" s="31"/>
       <c r="K116" s="8"/>
       <c r="L116" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="117" spans="4:12" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3544,25 +3531,25 @@
         <v>37</v>
       </c>
       <c r="E117" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F117" s="29" t="s">
         <v>45</v>
       </c>
       <c r="G117" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H117" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="I117" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="H117" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="I117" s="38" t="s">
+      <c r="J117" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="K117" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="J117" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="K117" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="L117" s="7" t="s">
         <v>174</v>
@@ -3577,7 +3564,7 @@
       <c r="I118" s="39"/>
       <c r="J118" s="30"/>
       <c r="K118" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L118" s="7" t="s">
         <v>52</v>
@@ -3606,7 +3593,7 @@
       <c r="J120" s="31"/>
       <c r="K120" s="8"/>
       <c r="L120" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="121" spans="4:12" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3614,28 +3601,28 @@
         <v>38</v>
       </c>
       <c r="E121" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F121" s="29" t="s">
         <v>45</v>
       </c>
       <c r="G121" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="H121" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="H121" s="35" t="s">
-        <v>211</v>
-      </c>
       <c r="I121" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="J121" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="K121" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="J121" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="K121" s="7" t="s">
+      <c r="L121" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L121" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="122" spans="4:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3647,7 +3634,7 @@
       <c r="I122" s="39"/>
       <c r="J122" s="30"/>
       <c r="K122" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L122" s="7" t="s">
         <v>52</v>
@@ -3676,7 +3663,7 @@
       <c r="J124" s="31"/>
       <c r="K124" s="8"/>
       <c r="L124" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="125" spans="4:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3684,25 +3671,25 @@
         <v>39</v>
       </c>
       <c r="E125" s="29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F125" s="29" t="s">
         <v>45</v>
       </c>
       <c r="G125" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="H125" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="H125" s="35" t="s">
-        <v>219</v>
-      </c>
       <c r="I125" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="J125" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="K125" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="J125" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="K125" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="L125" s="7" t="s">
         <v>134</v>
@@ -3717,7 +3704,7 @@
       <c r="I126" s="39"/>
       <c r="J126" s="30"/>
       <c r="K126" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L126" s="7" t="s">
         <v>52</v>
@@ -3732,7 +3719,7 @@
       <c r="I127" s="39"/>
       <c r="J127" s="30"/>
       <c r="K127" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L127" s="7" t="s">
         <v>53</v>
@@ -3748,7 +3735,7 @@
       <c r="J128" s="31"/>
       <c r="K128" s="8"/>
       <c r="L128" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="129" spans="4:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3756,25 +3743,25 @@
         <v>40</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F129" s="29" t="s">
         <v>45</v>
       </c>
       <c r="G129" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H129" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="I129" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="J129" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="K129" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="H129" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="I129" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="J129" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="K129" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="L129" s="7" t="s">
         <v>151</v>
@@ -3789,10 +3776,10 @@
       <c r="I130" s="39"/>
       <c r="J130" s="30"/>
       <c r="K130" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="L130" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
     </row>
     <row r="131" spans="4:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3804,7 +3791,7 @@
       <c r="I131" s="39"/>
       <c r="J131" s="30"/>
       <c r="K131" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L131" s="7" t="s">
         <v>53</v>
@@ -3820,7 +3807,7 @@
       <c r="J132" s="31"/>
       <c r="K132" s="8"/>
       <c r="L132" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="133" spans="4:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3828,28 +3815,28 @@
         <v>41</v>
       </c>
       <c r="E133" s="29" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F133" s="29" t="s">
         <v>45</v>
       </c>
       <c r="G133" s="42" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="H133" s="45" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="I133" s="46" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="J133" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L133" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="134" spans="4:12" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3861,7 +3848,7 @@
       <c r="I134" s="39"/>
       <c r="J134" s="30"/>
       <c r="K134" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="L134" s="7" t="s">
         <v>52</v>
@@ -3876,7 +3863,7 @@
       <c r="I135" s="39"/>
       <c r="J135" s="30"/>
       <c r="K135" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L135" s="7" t="s">
         <v>53</v>
@@ -3892,7 +3879,7 @@
       <c r="J136" s="31"/>
       <c r="K136" s="8"/>
       <c r="L136" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="137" spans="4:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3900,25 +3887,25 @@
         <v>42</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F137" s="29" t="s">
         <v>57</v>
       </c>
       <c r="G137" s="41" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H137" s="35" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="I137" s="38" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="J137" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="L137" s="7" t="s">
         <v>134</v>
@@ -3933,7 +3920,7 @@
       <c r="I138" s="39"/>
       <c r="J138" s="30"/>
       <c r="K138" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="L138" s="7" t="s">
         <v>52</v>
@@ -3948,7 +3935,7 @@
       <c r="I139" s="39"/>
       <c r="J139" s="30"/>
       <c r="K139" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="L139" s="7" t="s">
         <v>62</v>
@@ -3964,7 +3951,7 @@
       <c r="J140" s="31"/>
       <c r="K140" s="8"/>
       <c r="L140" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="141" spans="4:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3972,28 +3959,28 @@
         <v>43</v>
       </c>
       <c r="E141" s="50" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F141" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G141" s="53" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H141" s="56" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="I141" s="59" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="J141" s="50" t="s">
         <v>48</v>
       </c>
       <c r="K141" s="9" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="L141" s="9" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="142" spans="4:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
